--- a/datos.xlsx
+++ b/datos.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Producto</t>
   </si>
@@ -45,6 +45,24 @@
   </si>
   <si>
     <t>QUESO PARMESANO</t>
+  </si>
+  <si>
+    <t>factura</t>
+  </si>
+  <si>
+    <t>cod_serie</t>
+  </si>
+  <si>
+    <t>num_serie</t>
+  </si>
+  <si>
+    <t>destino</t>
+  </si>
+  <si>
+    <t>E001</t>
+  </si>
+  <si>
+    <t>ALMACEN COCINA LA MOLINA</t>
   </si>
 </sst>
 </file>
@@ -363,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,59 +394,87 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>2</v>
+      <c r="A2">
+        <v>20601452651</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
       </c>
       <c r="C2">
-        <v>45</v>
+        <v>12654</v>
+      </c>
+      <c r="D2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-      <c r="C3">
-        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>2</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>30</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
+      <c r="B7">
         <v>0.98</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>50</v>
       </c>
-      <c r="F5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
